--- a/projects/smartcab/rules.xlsx
+++ b/projects/smartcab/rules.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -413,10 +413,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -485,7 +485,7 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -499,7 +499,7 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -578,7 +578,7 @@
       <c r="B12" t="s">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -592,7 +592,7 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -617,7 +617,7 @@
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -631,7 +631,7 @@
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
